--- a/4/Tipo de cambio nominal 1994 a 2021 - Trimestral.xlsx
+++ b/4/Tipo de cambio nominal 1994 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>Serie</t>
   </si>
@@ -525,6 +525,9 @@
   <si>
     <t>01-04-2021</t>
   </si>
+  <si>
+    <t>01-07-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -881,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH111"/>
+  <dimension ref="A1:BH112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18473,6 +18476,188 @@
         <v>190.47</v>
       </c>
     </row>
+    <row r="112" spans="1:60">
+      <c r="A112" t="s">
+        <v>170</v>
+      </c>
+      <c r="B112">
+        <v>23.45</v>
+      </c>
+      <c r="C112">
+        <v>771.4299999999999</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>112.45</v>
+      </c>
+      <c r="F112">
+        <v>1.24</v>
+      </c>
+      <c r="G112">
+        <v>35.68</v>
+      </c>
+      <c r="H112">
+        <v>122.32</v>
+      </c>
+      <c r="I112">
+        <v>6.12</v>
+      </c>
+      <c r="J112">
+        <v>88.06</v>
+      </c>
+      <c r="K112">
+        <v>89.26000000000001</v>
+      </c>
+      <c r="L112">
+        <v>1097.18</v>
+      </c>
+      <c r="M112">
+        <v>210.08</v>
+      </c>
+      <c r="N112">
+        <v>86.41</v>
+      </c>
+      <c r="O112">
+        <v>567</v>
+      </c>
+      <c r="P112">
+        <v>612.8</v>
+      </c>
+      <c r="Q112">
+        <v>771.4299999999999</v>
+      </c>
+      <c r="R112">
+        <v>771.4299999999999</v>
+      </c>
+      <c r="S112">
+        <v>368.8</v>
+      </c>
+      <c r="T112">
+        <v>940.77</v>
+      </c>
+      <c r="U112">
+        <v>771.4299999999999</v>
+      </c>
+      <c r="V112">
+        <v>570.49</v>
+      </c>
+      <c r="W112">
+        <v>99.18000000000001</v>
+      </c>
+      <c r="X112">
+        <v>540.41</v>
+      </c>
+      <c r="Y112">
+        <v>27.7</v>
+      </c>
+      <c r="Z112">
+        <v>0.03</v>
+      </c>
+      <c r="AA112">
+        <v>909.61</v>
+      </c>
+      <c r="AB112">
+        <v>2.57</v>
+      </c>
+      <c r="AC112">
+        <v>7.65</v>
+      </c>
+      <c r="AD112">
+        <v>840.5</v>
+      </c>
+      <c r="AE112">
+        <v>0.11</v>
+      </c>
+      <c r="AF112">
+        <v>28.84</v>
+      </c>
+      <c r="AG112">
+        <v>184.55</v>
+      </c>
+      <c r="AH112">
+        <v>49.25</v>
+      </c>
+      <c r="AI112">
+        <v>1063.41</v>
+      </c>
+      <c r="AJ112">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="AK112">
+        <v>190.9</v>
+      </c>
+      <c r="AL112">
+        <v>7.94</v>
+      </c>
+      <c r="AM112">
+        <v>0.2</v>
+      </c>
+      <c r="AN112">
+        <v>32.14</v>
+      </c>
+      <c r="AO112">
+        <v>13.6</v>
+      </c>
+      <c r="AP112">
+        <v>15.4</v>
+      </c>
+      <c r="AQ112">
+        <v>38.53</v>
+      </c>
+      <c r="AR112">
+        <v>17.88</v>
+      </c>
+      <c r="AS112">
+        <v>99.93000000000001</v>
+      </c>
+      <c r="AT112">
+        <v>52.79</v>
+      </c>
+      <c r="AU112">
+        <v>147.63</v>
+      </c>
+      <c r="AV112">
+        <v>0.02</v>
+      </c>
+      <c r="AW112">
+        <v>205.72</v>
+      </c>
+      <c r="AX112">
+        <v>183.94</v>
+      </c>
+      <c r="AY112">
+        <v>10.5</v>
+      </c>
+      <c r="AZ112">
+        <v>10.41</v>
+      </c>
+      <c r="BA112">
+        <v>0.05</v>
+      </c>
+      <c r="BB112">
+        <v>4.71</v>
+      </c>
+      <c r="BC112">
+        <v>238.71</v>
+      </c>
+      <c r="BD112">
+        <v>1.81</v>
+      </c>
+      <c r="BE112">
+        <v>0.67</v>
+      </c>
+      <c r="BF112">
+        <v>7.01</v>
+      </c>
+      <c r="BG112">
+        <v>119.24</v>
+      </c>
+      <c r="BH112">
+        <v>199.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
